--- a/biology/Zoologie/Calanus_finmarchicus/Calanus_finmarchicus.xlsx
+++ b/biology/Zoologie/Calanus_finmarchicus/Calanus_finmarchicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calanus finmarchicus est une espèce de crustacés copépodes. Il est un constituant important du zooplancton qui se trouve en quantités énormes en mer du Nord. Ce zooplancton est considéré comme une possible source de matières premières alimentaires d'origine marine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calanus finmarchicus est une espèce de crustacés copépodes. Il est un constituant important du zooplancton qui se trouve en quantités énormes en mer du Nord. Ce zooplancton est considéré comme une possible source de matières premières alimentaires d'origine marine.
 Calanus finmarchicus est riche en protéines et contient des acides gras oméga-3. Il contient également des quantités élevées d'antioxydants.
 </t>
         </is>
